--- a/code/summary_output.xlsx
+++ b/code/summary_output.xlsx
@@ -437,7 +437,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>9458.421052631578</v>
+        <v>9470.348837209298</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,7 +454,7 @@
         <v>150</v>
       </c>
       <c r="E4">
-        <v>7831.828460038986</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>10590.85964912281</v>
+        <v>10704.58676207514</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,7 +502,7 @@
         <v>150</v>
       </c>
       <c r="E7">
-        <v>9176.281676413255</v>
+        <v>9567.369059656219</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -533,7 +533,7 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>12846.85964912281</v>
+        <v>13009.58676207514</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,7 +550,7 @@
         <v>150</v>
       </c>
       <c r="E10">
-        <v>11683.16262879421</v>
+        <v>12224.04905387837</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -581,7 +581,7 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>9458.42105263158</v>
+        <v>9470.348837209298</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,7 +598,7 @@
         <v>150</v>
       </c>
       <c r="E13">
-        <v>7831.828460038985</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -629,7 +629,7 @@
         <v>100</v>
       </c>
       <c r="E15">
-        <v>10667.71929824561</v>
+        <v>10822.20393559928</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,7 +646,7 @@
         <v>150</v>
       </c>
       <c r="E16">
-        <v>9196.281676413255</v>
+        <v>9577.369059656217</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -677,7 +677,7 @@
         <v>100</v>
       </c>
       <c r="E18">
-        <v>13075.71929824561</v>
+        <v>13307.20393559928</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -694,7 +694,7 @@
         <v>150</v>
       </c>
       <c r="E19">
-        <v>11755.96686159844</v>
+        <v>12383.02123356926</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -725,7 +725,7 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>9458.421052631576</v>
+        <v>9470.348837209298</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -742,7 +742,7 @@
         <v>150</v>
       </c>
       <c r="E22">
-        <v>7831.828460038985</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -773,7 +773,7 @@
         <v>100</v>
       </c>
       <c r="E24">
-        <v>10667.71929824561</v>
+        <v>10822.20393559928</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -790,7 +790,7 @@
         <v>150</v>
       </c>
       <c r="E25">
-        <v>9196.281676413255</v>
+        <v>9577.369059656217</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -821,7 +821,7 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>13075.71929824561</v>
+        <v>13307.20393559928</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -838,7 +838,7 @@
         <v>150</v>
       </c>
       <c r="E28">
-        <v>11755.96686159844</v>
+        <v>12383.02123356926</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -869,7 +869,7 @@
         <v>100</v>
       </c>
       <c r="E30">
-        <v>9461.432748538013</v>
+        <v>9514.035062611803</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -886,7 +886,7 @@
         <v>150</v>
       </c>
       <c r="E31">
-        <v>7831.828460038985</v>
+        <v>8048.040444893834</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -917,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="E33">
-        <v>11681.85964912281</v>
+        <v>11738.27799642218</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -934,7 +934,7 @@
         <v>150</v>
       </c>
       <c r="E34">
-        <v>9277.730994152047</v>
+        <v>9595.764408493427</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -965,7 +965,7 @@
         <v>100</v>
       </c>
       <c r="E36">
-        <v>13938.85964912281</v>
+        <v>14077.08676207513</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -982,7 +982,7 @@
         <v>150</v>
       </c>
       <c r="E37">
-        <v>11893.70718462824</v>
+        <v>12374.04905387837</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1013,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>9560.992007797275</v>
+        <v>9637.91759352882</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1030,7 +1030,7 @@
         <v>150</v>
       </c>
       <c r="E40">
-        <v>7831.828460038985</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1061,7 +1061,7 @@
         <v>100</v>
       </c>
       <c r="E42">
-        <v>12648.42105263158</v>
+        <v>12660.3488372093</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1078,7 +1078,7 @@
         <v>150</v>
       </c>
       <c r="E43">
-        <v>9347.846978557503</v>
+        <v>9645.764408493427</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>14908.85964912281</v>
+        <v>15047.08676207514</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1126,7 +1126,7 @@
         <v>150</v>
       </c>
       <c r="E46">
-        <v>12006.84210526316</v>
+        <v>12553.02123356926</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1157,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>9560.992007797275</v>
+        <v>9637.91759352882</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1174,7 +1174,7 @@
         <v>150</v>
       </c>
       <c r="E49">
-        <v>7831.828460038985</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>100</v>
       </c>
       <c r="E51">
-        <v>12648.42105263158</v>
+        <v>12660.3488372093</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1222,7 +1222,7 @@
         <v>150</v>
       </c>
       <c r="E52">
-        <v>9347.846978557503</v>
+        <v>9645.764408493427</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1253,7 +1253,7 @@
         <v>100</v>
       </c>
       <c r="E54">
-        <v>15061.71929824561</v>
+        <v>15254.70393559928</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1270,7 +1270,7 @@
         <v>150</v>
       </c>
       <c r="E55">
-        <v>12045.66471734893</v>
+        <v>12573.02123356926</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1301,7 +1301,7 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>9461.432748538013</v>
+        <v>9514.035062611803</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1318,7 +1318,7 @@
         <v>150</v>
       </c>
       <c r="E58">
-        <v>7831.828460038985</v>
+        <v>8048.040444893834</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>100</v>
       </c>
       <c r="E60">
-        <v>11953.13742690058</v>
+        <v>12059.59369409659</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>150</v>
       </c>
       <c r="E61">
-        <v>9277.730994152047</v>
+        <v>9595.764408493427</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1397,7 +1397,7 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>16121.8596491228</v>
+        <v>16178.27799642217</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1414,7 +1414,7 @@
         <v>150</v>
       </c>
       <c r="E64">
-        <v>12148.48496240602</v>
+        <v>12552.44440271558</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>9570.392007797271</v>
+        <v>9646.776415571287</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>150</v>
       </c>
       <c r="E67">
-        <v>7831.828460038985</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1493,7 +1493,7 @@
         <v>100</v>
       </c>
       <c r="E69">
-        <v>12651.43274853801</v>
+        <v>12712.01967799642</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1510,7 +1510,7 @@
         <v>150</v>
       </c>
       <c r="E70">
-        <v>9347.846978557503</v>
+        <v>9645.764408493427</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1541,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>17091.85964912281</v>
+        <v>17148.27799642218</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1558,7 +1558,7 @@
         <v>150</v>
       </c>
       <c r="E73">
-        <v>12261.61988304094</v>
+        <v>12731.41658240647</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1589,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>9687.951267056529</v>
+        <v>9767.401415571287</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1606,7 +1606,7 @@
         <v>150</v>
       </c>
       <c r="E76">
-        <v>7831.828460038985</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1637,7 +1637,7 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>12850.62904483432</v>
+        <v>12940.85237613751</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1654,7 +1654,7 @@
         <v>150</v>
       </c>
       <c r="E79">
-        <v>9347.846978557503</v>
+        <v>9645.764408493427</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1685,7 +1685,7 @@
         <v>100</v>
       </c>
       <c r="E81">
-        <v>19028.42105263157</v>
+        <v>19040.34883720931</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1702,7 +1702,7 @@
         <v>150</v>
       </c>
       <c r="E82">
-        <v>12379.88401559454</v>
+        <v>12831.41658240647</v>
       </c>
     </row>
   </sheetData>

--- a/code/summary_output.xlsx
+++ b/code/summary_output.xlsx
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>10704.58676207514</v>
+        <v>10704.58676207513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,7 +502,7 @@
         <v>150</v>
       </c>
       <c r="E7">
-        <v>9567.369059656219</v>
+        <v>9567.369059656217</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -533,7 +533,7 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>13009.58676207514</v>
+        <v>13009.58676207513</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -869,7 +869,7 @@
         <v>100</v>
       </c>
       <c r="E30">
-        <v>9514.035062611803</v>
+        <v>9514.035062611807</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -886,7 +886,7 @@
         <v>150</v>
       </c>
       <c r="E31">
-        <v>8048.040444893834</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -934,7 +934,7 @@
         <v>150</v>
       </c>
       <c r="E34">
-        <v>9595.764408493427</v>
+        <v>9595.764408493425</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1013,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>9637.91759352882</v>
+        <v>9637.917593528817</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1078,7 +1078,7 @@
         <v>150</v>
       </c>
       <c r="E43">
-        <v>9645.764408493427</v>
+        <v>9645.764408493425</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>15047.08676207514</v>
+        <v>15047.08676207513</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1157,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>9637.91759352882</v>
+        <v>9637.917593528815</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,7 +1222,7 @@
         <v>150</v>
       </c>
       <c r="E52">
-        <v>9645.764408493427</v>
+        <v>9645.764408493425</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1301,7 +1301,7 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>9514.035062611803</v>
+        <v>9514.035062611807</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1318,7 +1318,7 @@
         <v>150</v>
       </c>
       <c r="E58">
-        <v>8048.040444893834</v>
+        <v>8048.040444893833</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>100</v>
       </c>
       <c r="E60">
-        <v>12059.59369409659</v>
+        <v>12059.5936940966</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>9646.776415571287</v>
+        <v>9646.776415571283</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1589,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>9767.401415571287</v>
+        <v>9767.401415571283</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1654,7 +1654,7 @@
         <v>150</v>
       </c>
       <c r="E79">
-        <v>9645.764408493427</v>
+        <v>9645.764408493425</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1685,7 +1685,7 @@
         <v>100</v>
       </c>
       <c r="E81">
-        <v>19040.34883720931</v>
+        <v>19040.3488372093</v>
       </c>
     </row>
     <row r="82" spans="1:5">

--- a/code/summary_output.xlsx
+++ b/code/summary_output.xlsx
@@ -437,7 +437,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>9470.348837209298</v>
+        <v>9470.348837209309</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,7 +454,7 @@
         <v>150</v>
       </c>
       <c r="E4">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>10704.58676207513</v>
+        <v>10704.58676207514</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,7 +502,7 @@
         <v>150</v>
       </c>
       <c r="E7">
-        <v>9567.369059656217</v>
+        <v>9567.369059656221</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,7 +550,7 @@
         <v>150</v>
       </c>
       <c r="E10">
-        <v>12224.04905387837</v>
+        <v>12224.04905387838</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -581,7 +581,7 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>9470.348837209298</v>
+        <v>9470.348837209312</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,7 +598,7 @@
         <v>150</v>
       </c>
       <c r="E13">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -629,7 +629,7 @@
         <v>100</v>
       </c>
       <c r="E15">
-        <v>10822.20393559928</v>
+        <v>10822.20393559929</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,7 +646,7 @@
         <v>150</v>
       </c>
       <c r="E16">
-        <v>9577.369059656217</v>
+        <v>9577.369059656223</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -725,7 +725,7 @@
         <v>100</v>
       </c>
       <c r="E21">
-        <v>9470.348837209298</v>
+        <v>9470.348837209312</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -742,7 +742,7 @@
         <v>150</v>
       </c>
       <c r="E22">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -773,7 +773,7 @@
         <v>100</v>
       </c>
       <c r="E24">
-        <v>10822.20393559928</v>
+        <v>10822.20393559929</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -790,7 +790,7 @@
         <v>150</v>
       </c>
       <c r="E25">
-        <v>9577.369059656217</v>
+        <v>9577.369059656223</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -869,7 +869,7 @@
         <v>100</v>
       </c>
       <c r="E30">
-        <v>9514.035062611807</v>
+        <v>9514.035062611812</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -886,7 +886,7 @@
         <v>150</v>
       </c>
       <c r="E31">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -934,7 +934,7 @@
         <v>150</v>
       </c>
       <c r="E34">
-        <v>9595.764408493425</v>
+        <v>9595.764408493431</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -982,7 +982,7 @@
         <v>150</v>
       </c>
       <c r="E37">
-        <v>12374.04905387837</v>
+        <v>12374.04905387838</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1013,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>9637.917593528817</v>
+        <v>9637.917593528822</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1030,7 +1030,7 @@
         <v>150</v>
       </c>
       <c r="E40">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1061,7 +1061,7 @@
         <v>100</v>
       </c>
       <c r="E42">
-        <v>12660.3488372093</v>
+        <v>12660.34883720929</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1078,7 +1078,7 @@
         <v>150</v>
       </c>
       <c r="E43">
-        <v>9645.764408493425</v>
+        <v>9645.764408493435</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1157,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="E48">
-        <v>9637.917593528815</v>
+        <v>9637.917593528822</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1174,7 +1174,7 @@
         <v>150</v>
       </c>
       <c r="E49">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>100</v>
       </c>
       <c r="E51">
-        <v>12660.3488372093</v>
+        <v>12660.34883720928</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1222,7 +1222,7 @@
         <v>150</v>
       </c>
       <c r="E52">
-        <v>9645.764408493425</v>
+        <v>9645.764408493435</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1253,7 +1253,7 @@
         <v>100</v>
       </c>
       <c r="E54">
-        <v>15254.70393559928</v>
+        <v>15254.70393559927</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1301,7 +1301,7 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>9514.035062611807</v>
+        <v>9514.035062611811</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1318,7 +1318,7 @@
         <v>150</v>
       </c>
       <c r="E58">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>150</v>
       </c>
       <c r="E61">
-        <v>9595.764408493427</v>
+        <v>9595.764408493431</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1397,7 +1397,7 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>16178.27799642217</v>
+        <v>16178.27799642218</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>9646.776415571283</v>
+        <v>9646.77641557129</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>150</v>
       </c>
       <c r="E67">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1510,7 +1510,7 @@
         <v>150</v>
       </c>
       <c r="E70">
-        <v>9645.764408493427</v>
+        <v>9645.764408493435</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1541,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>17148.27799642218</v>
+        <v>17148.27799642217</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1589,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="E75">
-        <v>9767.401415571283</v>
+        <v>9767.40141557129</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1606,7 +1606,7 @@
         <v>150</v>
       </c>
       <c r="E76">
-        <v>8048.040444893833</v>
+        <v>8048.040444893835</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1637,7 +1637,7 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>12940.85237613751</v>
+        <v>12940.8523761375</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1654,7 +1654,7 @@
         <v>150</v>
       </c>
       <c r="E79">
-        <v>9645.764408493425</v>
+        <v>9645.764408493435</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1685,7 +1685,7 @@
         <v>100</v>
       </c>
       <c r="E81">
-        <v>19040.3488372093</v>
+        <v>19040.34883720929</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1702,7 +1702,7 @@
         <v>150</v>
       </c>
       <c r="E82">
-        <v>12831.41658240647</v>
+        <v>12831.41658240646</v>
       </c>
     </row>
   </sheetData>
